--- a/Review Comments/Review Comments Document.xlsx
+++ b/Review Comments/Review Comments Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1-ITI\15- Quality Assurance\1- Workshop\1- GIT\GitHub\learning-hub\Review Comments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D154D9-0189-43B7-AC59-F1E382EAB474}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FDEC9F-C8B6-4154-8D2F-B16F3DCFEEEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{517ADA08-9008-4EF8-8B33-926C871191B2}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="95">
   <si>
     <t>Doc Version</t>
   </si>
@@ -343,6 +343,36 @@
   </si>
   <si>
     <t>Add "Content Path" attribute in the content entity to know the file path of the uploaded file.</t>
+  </si>
+  <si>
+    <t>18/3/2023</t>
+  </si>
+  <si>
+    <t>Eng. Mohamed Hassan</t>
+  </si>
+  <si>
+    <t>Share button in wireframe need to be renamed to (add)</t>
+  </si>
+  <si>
+    <t>Add content popup page</t>
+  </si>
+  <si>
+    <t>V3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confitrm if Admin can add or delete another admin or not </t>
+  </si>
+  <si>
+    <t>Article length should be confirmed in SIQ</t>
+  </si>
+  <si>
+    <t>Feature partition</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>Alaa</t>
   </si>
 </sst>
 </file>
@@ -464,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,16 +526,22 @@
     <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -822,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165473DF-4415-4360-A898-B8D88BBC8B39}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +871,7 @@
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="118.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
@@ -843,17 +879,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1186,176 +1222,176 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>11</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="F14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>12</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>13</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="12" t="s">
+      <c r="F16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>14</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="12" t="s">
+      <c r="F17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>15</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="12" t="s">
+      <c r="F18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>16</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="12" t="s">
+      <c r="F19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1526,300 +1562,396 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C27" s="6">
         <v>27</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="14">
-        <v>45081</v>
+      <c r="D27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="I27" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C28" s="6">
         <v>28</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="14">
-        <v>45081</v>
+        <v>91</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="I28" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C29" s="6">
         <v>29</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="14">
-        <v>45081</v>
+        <v>90</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="14">
+        <v>30</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="16">
+        <v>45081</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="14">
+        <v>31</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="16">
+        <v>45081</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="14">
+        <v>32</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="16">
+        <v>45081</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B34" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="6">
-        <v>30</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="C34" s="14">
+        <v>33</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E34" s="16">
         <v>45081</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="F34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6" t="s">
+      <c r="H34" s="14"/>
+      <c r="I34" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="35" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B35" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="6">
-        <v>31</v>
-      </c>
-      <c r="D31" s="9" t="s">
+      <c r="C35" s="14">
+        <v>34</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E35" s="16">
         <v>45081</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="6" t="s">
+      <c r="F35" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6" t="s">
+      <c r="H35" s="14"/>
+      <c r="I35" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="36" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B36" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="6">
-        <v>32</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="C36" s="14">
+        <v>35</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E36" s="16">
         <v>45081</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="6" t="s">
+      <c r="F36" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6" t="s">
+      <c r="H36" s="14"/>
+      <c r="I36" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="37" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B37" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="6">
-        <v>33</v>
-      </c>
-      <c r="D33" s="9" t="s">
+      <c r="C37" s="14">
+        <v>36</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E37" s="16">
         <v>45081</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="6" t="s">
+      <c r="F37" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6" t="s">
+      <c r="H37" s="14"/>
+      <c r="I37" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="38" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B38" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="6">
-        <v>34</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="C38" s="14">
+        <v>37</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E38" s="16">
         <v>45081</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="6" t="s">
+      <c r="F38" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6" t="s">
+      <c r="H38" s="14"/>
+      <c r="I38" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+    <row r="39" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B39" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="6">
-        <v>35</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="C39" s="14">
+        <v>38</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E39" s="16">
         <v>45081</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="6" t="s">
+      <c r="F39" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6" t="s">
+      <c r="H39" s="14"/>
+      <c r="I39" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="40" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B40" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="6">
-        <v>36</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="C40" s="14">
+        <v>39</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E40" s="16">
         <v>45081</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="6" t="s">
+      <c r="F40" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6" t="s">
+      <c r="H40" s="14"/>
+      <c r="I40" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    <row r="41" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B41" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="6">
-        <v>37</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="C41" s="14">
+        <v>40</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E41" s="16">
         <v>45081</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="F41" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6" t="s">
+      <c r="H41" s="14"/>
+      <c r="I41" s="14" t="s">
         <v>64</v>
       </c>
     </row>

--- a/Review Comments/Review Comments Document.xlsx
+++ b/Review Comments/Review Comments Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1-ITI\15- Quality Assurance\1- Workshop\1- GIT\GitHub\learning-hub\Review Comments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FDEC9F-C8B6-4154-8D2F-B16F3DCFEEEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE970FE-C0EB-493D-A748-CD5137FC15DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{517ADA08-9008-4EF8-8B33-926C871191B2}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="95">
   <si>
     <t>Doc Version</t>
   </si>
@@ -372,7 +372,7 @@
     <t>Nada</t>
   </si>
   <si>
-    <t>Alaa</t>
+    <t>Confirmed</t>
   </si>
 </sst>
 </file>
@@ -532,9 +532,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,6 +539,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,7 +861,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,17 +879,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1614,10 +1614,10 @@
         <v>63</v>
       </c>
       <c r="H28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1642,9 +1642,11 @@
       <c r="G29" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="I29" s="6" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1659,299 +1661,299 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="13">
         <v>30</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <v>45081</v>
       </c>
-      <c r="F31" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="14" t="s">
+      <c r="F31" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14" t="s">
+      <c r="H31" s="13"/>
+      <c r="I31" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="13">
         <v>31</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <v>45081</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="14" t="s">
+      <c r="F32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14" t="s">
+      <c r="H32" s="13"/>
+      <c r="I32" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="13">
         <v>32</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="15">
         <v>45081</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="14" t="s">
+      <c r="F33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14" t="s">
+      <c r="H33" s="13"/>
+      <c r="I33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="13">
         <v>33</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <v>45081</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="14" t="s">
+      <c r="F34" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14" t="s">
+      <c r="H34" s="13"/>
+      <c r="I34" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="13">
         <v>34</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <v>45081</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="14" t="s">
+      <c r="F35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14" t="s">
+      <c r="H35" s="13"/>
+      <c r="I35" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="13">
         <v>35</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="15">
         <v>45081</v>
       </c>
-      <c r="F36" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="14" t="s">
+      <c r="F36" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14" t="s">
+      <c r="H36" s="13"/>
+      <c r="I36" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="13">
         <v>36</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="15">
         <v>45081</v>
       </c>
-      <c r="F37" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="14" t="s">
+      <c r="F37" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14" t="s">
+      <c r="H37" s="13"/>
+      <c r="I37" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="13">
         <v>37</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="15">
         <v>45081</v>
       </c>
-      <c r="F38" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="14" t="s">
+      <c r="F38" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14" t="s">
+      <c r="H38" s="13"/>
+      <c r="I38" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="13">
         <v>38</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="15">
         <v>45081</v>
       </c>
-      <c r="F39" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="14" t="s">
+      <c r="F39" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14" t="s">
+      <c r="H39" s="13"/>
+      <c r="I39" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="13">
         <v>39</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="15">
         <v>45081</v>
       </c>
-      <c r="F40" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="14" t="s">
+      <c r="F40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14" t="s">
+      <c r="H40" s="13"/>
+      <c r="I40" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="13">
         <v>40</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="15">
         <v>45081</v>
       </c>
-      <c r="F41" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="14" t="s">
+      <c r="F41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14" t="s">
+      <c r="H41" s="13"/>
+      <c r="I41" s="13" t="s">
         <v>64</v>
       </c>
     </row>
